--- a/trend_results/Rivers/OhauatStateHighwayBridge_54a816f684.xlsx
+++ b/trend_results/Rivers/OhauatStateHighwayBridge_54a816f684.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.8435116478183829</v>
+        <v>0.156488352181617</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -1198,7 +1198,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.970540427363233</v>
+        <v>0.029459572636767</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1649,7 +1649,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.246505470648467</v>
+        <v>0.753494529351533</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1682,7 +1682,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -2104,7 +2104,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.652678878340195</v>
+        <v>0.347321121659805</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2267,11 +2267,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -2282,31 +2282,31 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.40324797025367</v>
+        <v>0.0035173892579389</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.006578947368421</v>
       </c>
       <c r="H21" t="n">
+        <v>0.7697368421052631</v>
+      </c>
+      <c r="I21" t="n">
         <v>1</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
       <c r="J21" t="n">
-        <v>0.43</v>
+        <v>2.75</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.029581508018834</v>
+        <v>0.151286982248521</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.176360912659384</v>
+        <v>0.0206646678249072</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0622947393861574</v>
+        <v>0.381254419922632</v>
       </c>
       <c r="N21" t="n">
-        <v>-6.87942046949629</v>
+        <v>5.50134480903712</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2344,7 +2344,11 @@
           <t>Ohau_1b</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr"/>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>mg/m2</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2354,7 +2358,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -2369,7 +2373,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.231216363225238</v>
+        <v>0.40324797025367</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2381,19 +2385,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>113</v>
+        <v>0.43</v>
       </c>
       <c r="K22" t="n">
-        <v>-4.49732385825738</v>
+        <v>-0.029581508018834</v>
       </c>
       <c r="L22" t="n">
-        <v>-14.4005936765075</v>
+        <v>-0.176360912659384</v>
       </c>
       <c r="M22" t="n">
-        <v>1.70835450370621</v>
+        <v>0.0622947393861574</v>
       </c>
       <c r="N22" t="n">
-        <v>-3.97993261792689</v>
+        <v>-6.87942046949629</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2402,7 +2406,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2441,7 +2445,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2456,7 +2460,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.5</v>
+        <v>0.231216363225238</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2468,19 +2472,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>5.5</v>
+        <v>113</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0007101433939671</v>
+        <v>-4.49732385825738</v>
       </c>
       <c r="L23" t="n">
-        <v>-2.42639903877314</v>
+        <v>-14.4005936765075</v>
       </c>
       <c r="M23" t="n">
-        <v>0.503077616802289</v>
+        <v>1.70835450370621</v>
       </c>
       <c r="N23" t="n">
-        <v>0.0129116980721297</v>
+        <v>-3.97993261792689</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2489,7 +2493,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2519,6 +2523,93 @@
         </is>
       </c>
       <c r="W23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Ohau at State Highway Bridge</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>5</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.0007101433939671</v>
+      </c>
+      <c r="L24" t="n">
+        <v>-2.42639903877314</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.503077616802289</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.0129116980721297</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>1789383.539</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5495386.718</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Ohau</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Ohau_1b</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/OhauatStateHighwayBridge_54a816f684.xlsx
+++ b/trend_results/Rivers/OhauatStateHighwayBridge_54a816f684.xlsx
@@ -569,35 +569,35 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.921951117696889</v>
+        <v>0.448088767169242</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0185185185185185</v>
+        <v>0.0188679245283019</v>
       </c>
       <c r="H2" t="n">
-        <v>0.759259259259259</v>
+        <v>0.716981132075472</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.676388888888889</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>-2.14705829322384</v>
+        <v>-0.687210303096641</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0248555322757928</v>
+        <v>1.11352781817431</v>
       </c>
       <c r="N2" t="n">
-        <v>-10.4059829059829</v>
+        <v>0</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -670,25 +670,25 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9090909090909089</v>
+        <v>0.8545454545454541</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10.89</v>
+        <v>10.87</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.0283368751264927</v>
+        <v>-0.0322802845739173</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.09093475976481349</v>
+        <v>-0.130104226207692</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0765071784462055</v>
+        <v>0.0544771793234744</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.260210056257968</v>
+        <v>-0.296966739410463</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.286439659337103</v>
+        <v>0.203401914850544</v>
       </c>
       <c r="G4" t="n">
-        <v>0.178571428571429</v>
+        <v>0.196428571428571</v>
       </c>
       <c r="H4" t="n">
-        <v>0.196428571428571</v>
+        <v>0.214285714285714</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -773,10 +773,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>-8.68627954190516e-05</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0008553864168618</v>
+        <v>0.0008877851540782001</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -846,31 +846,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.80839246105353</v>
+        <v>0.962008810711416</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.672727272727273</v>
+        <v>0.660714285714286</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>58</v>
+        <v>53.5</v>
       </c>
       <c r="K5" t="n">
-        <v>-3.56183510638298</v>
+        <v>-8.86051212938005</v>
       </c>
       <c r="L5" t="n">
-        <v>-12.342960143962</v>
+        <v>-13.7145073262018</v>
       </c>
       <c r="M5" t="n">
-        <v>3.23765667909578</v>
+        <v>-0.838981653601466</v>
       </c>
       <c r="N5" t="n">
-        <v>-6.14109501100514</v>
+        <v>-16.5617049147291</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -933,18 +933,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>&lt; 3 unique values</t>
+          <t>&lt; 5 Non-censored values</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>0.96</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="H6" t="n">
-        <v>0.08</v>
+        <v>0.0769230769230769</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -1016,10 +1016,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.581819914748425</v>
+        <v>0.991657020460483</v>
       </c>
       <c r="G7" t="n">
-        <v>0.660714285714286</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="H7" t="n">
         <v>0.125</v>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1103,11 +1103,11 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.5</v>
+        <v>0.350681023734419</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1119,19 +1119,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.198</v>
+        <v>0.189</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>0.0072400888585099</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0195958886341253</v>
+        <v>-0.0138846484847568</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0171744449396374</v>
+        <v>0.0221344276700109</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>3.83073484577244</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1198,31 +1198,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.029459572636767</v>
+        <v>0.233831788510869</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7037037037037041</v>
+        <v>0.745454545454545</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.56</v>
+        <v>7.54</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0483914170506912</v>
+        <v>-0.0208714285714285</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.09125941333808719</v>
+        <v>-0.0664168974861666</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.0050260736281375</v>
+        <v>0.0296597021670357</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.640098109136126</v>
+        <v>-0.276809397499052</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1285,31 +1285,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.469432494911888</v>
+        <v>0.295676810411018</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.892857142857143</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.207</v>
+        <v>0.19525</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0019877551020408</v>
+        <v>0.0074897470950102</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0190243294291178</v>
+        <v>-0.0146072817879606</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0196789142741835</v>
+        <v>0.0209071243374856</v>
       </c>
       <c r="N10" t="n">
-        <v>0.96026816523711</v>
+        <v>3.83597802561345</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1372,35 +1372,35 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.7791218362875399</v>
+        <v>0.5</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.607142857142857</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.28</v>
+        <v>0.255</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.0066469517743403</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.0298163265306122</v>
+        <v>-0.0135578353432446</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0149932889052565</v>
+        <v>0.0225701422743446</v>
       </c>
       <c r="N11" t="n">
-        <v>-2.37391134797868</v>
+        <v>0</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1463,35 +1463,35 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.0070939816783501</v>
+        <v>0.265908035745463</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.321428571428571</v>
+        <v>0.339285714285714</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.01</v>
+        <v>0.0105</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0010006924428031</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>6.89989305065234e-05</v>
+        <v>-0.0003618520901061</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0016373617603018</v>
+        <v>0.0010182682982659</v>
       </c>
       <c r="N12" t="n">
-        <v>10.006924428031</v>
+        <v>0</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1558,31 +1558,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.124021452139647</v>
+        <v>0.0505208312897955</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0091743119266055</v>
+        <v>0.0092592592592592</v>
       </c>
       <c r="H13" t="n">
-        <v>0.743119266055046</v>
+        <v>0.731481481481482</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>4.8</v>
+        <v>5.25</v>
       </c>
       <c r="K13" t="n">
-        <v>0.103943027210884</v>
+        <v>0.163569189431258</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.026649513003321</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.530629539951574</v>
+        <v>0.601873106292202</v>
       </c>
       <c r="N13" t="n">
-        <v>2.16547973356009</v>
+        <v>3.11560360821445</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1649,31 +1649,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.753494529351533</v>
+        <v>0.684092697367081</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.882882882882883</v>
+        <v>0.839285714285714</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>10.68</v>
+        <v>10.725</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0128307962529274</v>
+        <v>0.0114635172764673</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.0166329227933118</v>
+        <v>-0.0213578637470712</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0416367018309534</v>
+        <v>0.0445415434048717</v>
       </c>
       <c r="N14" t="n">
-        <v>0.120138541694077</v>
+        <v>0.106885941971723</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1736,14 +1736,14 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.929636560645277</v>
+        <v>0.997924245435666</v>
       </c>
       <c r="G15" t="n">
-        <v>0.112068965517241</v>
+        <v>0.120689655172414</v>
       </c>
       <c r="H15" t="n">
         <v>0.120689655172414</v>
@@ -1755,16 +1755,16 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>-0.0003162337662337</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.0003727040816326</v>
+        <v>-0.0004993164730006</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>-3.51370851370851</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1831,13 +1831,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.89955078395941</v>
+        <v>0.837190301088992</v>
       </c>
       <c r="G16" t="n">
-        <v>0.934579439252336</v>
+        <v>0.916666666666667</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0841121495327103</v>
+        <v>0.0925925925925926</v>
       </c>
       <c r="I16" t="n">
         <v>2</v>
@@ -1922,10 +1922,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.998732798090584</v>
+        <v>0.999883356486876</v>
       </c>
       <c r="G17" t="n">
-        <v>0.474137931034483</v>
+        <v>0.568965517241379</v>
       </c>
       <c r="H17" t="n">
         <v>0.09482758620689651</v>
@@ -2009,35 +2009,35 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.5</v>
+        <v>0.78305319351</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.974137931034483</v>
+        <v>0.9655172413793101</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1894</v>
+        <v>0.1914</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>-0.0023029774596405</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.0064153310898398</v>
+        <v>-0.008559967975134201</v>
       </c>
       <c r="M18" t="n">
-        <v>0.007021111448876</v>
+        <v>0.0033229787887986</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>-1.20322751287386</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2104,31 +2104,31 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.347321121659805</v>
+        <v>0.18063233558513</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.585585585585586</v>
+        <v>0.616071428571429</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>7.53</v>
+        <v>7.545</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.0034328007518797</v>
+        <v>-0.009204117541223</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.0184405686858681</v>
+        <v>-0.0248469387755102</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0126374820155074</v>
+        <v>0.0074814259700623</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.0455883233981378</v>
+        <v>-0.121989629439669</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2191,31 +2191,31 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.446336864249828</v>
+        <v>0.758613259110031</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.905172413793103</v>
+        <v>0.913793103448276</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1955</v>
+        <v>0.19565</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0002496582365003</v>
+        <v>-0.0023264331210191</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.0069546239353949</v>
+        <v>-0.0091842480067456</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0070236134432614</v>
+        <v>0.003439901482267</v>
       </c>
       <c r="N20" t="n">
-        <v>0.127702422762323</v>
+        <v>-1.18907902939898</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2274,7 +2274,7 @@
         <v>15</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -2282,31 +2282,31 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.0035173892579389</v>
+        <v>0.0013594556714927</v>
       </c>
       <c r="G21" t="n">
-        <v>0.006578947368421</v>
+        <v>0.0061349693251533</v>
       </c>
       <c r="H21" t="n">
-        <v>0.7697368421052631</v>
+        <v>0.736196319018405</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="K21" t="n">
-        <v>0.151286982248521</v>
+        <v>0.115954437361478</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0206646678249072</v>
+        <v>0.0183066002978353</v>
       </c>
       <c r="M21" t="n">
-        <v>0.381254419922632</v>
+        <v>0.322192349437707</v>
       </c>
       <c r="N21" t="n">
-        <v>5.50134480903712</v>
+        <v>4.14122990576708</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2385,19 +2385,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.43</v>
+        <v>0.363</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.029581508018834</v>
+        <v>-0.045292442104493</v>
       </c>
       <c r="L22" t="n">
         <v>-0.176360912659384</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0622947393861574</v>
+        <v>0.0637427676594442</v>
       </c>
       <c r="N22" t="n">
-        <v>-6.87942046949629</v>
+        <v>-12.4772567780972</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2472,19 +2472,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K23" t="n">
-        <v>-4.49732385825738</v>
+        <v>-4.8025053304904</v>
       </c>
       <c r="L23" t="n">
         <v>-14.4005936765075</v>
       </c>
       <c r="M23" t="n">
-        <v>1.70835450370621</v>
+        <v>1.91611989466209</v>
       </c>
       <c r="N23" t="n">
-        <v>-3.97993261792689</v>
+        <v>-4.36591393680946</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.5</v>
+        <v>0.231216363225238</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2562,16 +2562,16 @@
         <v>5.5</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0007101433939671</v>
+        <v>-0.536112192139103</v>
       </c>
       <c r="L24" t="n">
         <v>-2.42639903877314</v>
       </c>
       <c r="M24" t="n">
-        <v>0.503077616802289</v>
+        <v>0.496152602534566</v>
       </c>
       <c r="N24" t="n">
-        <v>0.0129116980721297</v>
+        <v>-9.747494402529149</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">

--- a/trend_results/Rivers/OhauatStateHighwayBridge_54a816f684.xlsx
+++ b/trend_results/Rivers/OhauatStateHighwayBridge_54a816f684.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="66">
   <si>
     <t>site name</t>
   </si>
@@ -91,6 +91,9 @@
     <t>Chlorophyll A</t>
   </si>
   <si>
+    <t>Visual Clarity</t>
+  </si>
+  <si>
     <t>Dissolved Oxygen Concentration</t>
   </si>
   <si>
@@ -121,6 +124,9 @@
     <t>Total Phosphorus</t>
   </si>
   <si>
+    <t>Turbidity</t>
+  </si>
+  <si>
     <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
   </si>
   <si>
@@ -130,18 +136,18 @@
     <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope based on tied non-censored values</t>
   </si>
   <si>
-    <t>ok</t>
+    <t>&lt; 5 Non-censored values</t>
   </si>
   <si>
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
-    <t>&lt; 5 Non-censored values</t>
-  </si>
-  <si>
     <t>WARNING: Sen slope based on two censored values</t>
   </si>
   <si>
@@ -151,30 +157,30 @@
     <t>As likely as not improving</t>
   </si>
   <si>
+    <t>Extremely likely improving</t>
+  </si>
+  <si>
+    <t>Likely increasing</t>
+  </si>
+  <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Not Analysed improving</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>Extremely likely increasing</t>
+  </si>
+  <si>
     <t>Unlikely increasing</t>
   </si>
   <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>Extremely likely improving</t>
-  </si>
-  <si>
-    <t>Not Analysed improving</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
-    <t>Very unlikely improving</t>
-  </si>
-  <si>
-    <t>Likely increasing</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
     <t>Exceptionally unlikely improving</t>
   </si>
   <si>
@@ -193,6 +199,9 @@
     <t>mg/m2</t>
   </si>
   <si>
+    <t>m</t>
+  </si>
+  <si>
     <t>g/m3</t>
   </si>
   <si>
@@ -200,6 +209,9 @@
   </si>
   <si>
     <t>E. coli/100 mL</t>
+  </si>
+  <si>
+    <t>NTU/FNU</t>
   </si>
 </sst>
 </file>
@@ -557,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W24"/>
+  <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -648,16 +660,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F2">
-        <v>0.448088767169242</v>
+        <v>0.336484202595268</v>
       </c>
       <c r="G2">
-        <v>0.0188679245283019</v>
+        <v>0.0212765957446809</v>
       </c>
       <c r="H2">
-        <v>0.716981132075472</v>
+        <v>0.787234042553192</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -666,22 +678,22 @@
         <v>6</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.25802590266876</v>
       </c>
       <c r="L2">
-        <v>-0.687210303096641</v>
+        <v>-0.7704000154071819</v>
       </c>
       <c r="M2">
-        <v>1.11352781817431</v>
+        <v>1.14172543518867</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>4.300431711146</v>
       </c>
       <c r="O2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q2">
         <v>1789383.539</v>
@@ -690,19 +702,19 @@
         <v>5495386.718</v>
       </c>
       <c r="S2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="W2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -716,43 +728,43 @@
         <v>5</v>
       </c>
       <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3">
+        <v>0.977593195833128</v>
+      </c>
+      <c r="G3">
+        <v>0.0222222222222222</v>
+      </c>
+      <c r="H3">
+        <v>0.777777777777778</v>
+      </c>
+      <c r="I3">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3">
-        <v>0.156488352181617</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0.8545454545454541</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
       <c r="J3">
-        <v>10.87</v>
+        <v>3.8</v>
       </c>
       <c r="K3">
-        <v>-0.0322802845739173</v>
+        <v>0.398799457282913</v>
       </c>
       <c r="L3">
-        <v>-0.130104226207692</v>
+        <v>0.07141138633649539</v>
       </c>
       <c r="M3">
-        <v>0.0544771793234744</v>
+        <v>0.702437512733245</v>
       </c>
       <c r="N3">
-        <v>-0.296966739410463</v>
+        <v>10.4947225600767</v>
       </c>
       <c r="O3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q3">
         <v>1789383.539</v>
@@ -761,19 +773,19 @@
         <v>5495386.718</v>
       </c>
       <c r="S3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="W3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -787,43 +799,43 @@
         <v>5</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>40</v>
       </c>
       <c r="F4">
-        <v>0.203401914850544</v>
+        <v>0.676822402230255</v>
       </c>
       <c r="G4">
-        <v>0.196428571428571</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.214285714285714</v>
+        <v>0.875</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.007</v>
+        <v>10.88</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.0249658236500341</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>-0.0390986838369104</v>
       </c>
       <c r="M4">
-        <v>0.0008877851540782001</v>
+        <v>0.12350789035777</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.229465290901049</v>
       </c>
       <c r="O4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q4">
         <v>1789383.539</v>
@@ -832,19 +844,19 @@
         <v>5495386.718</v>
       </c>
       <c r="S4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="W4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -858,43 +870,43 @@
         <v>5</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F5">
-        <v>0.962008810711416</v>
+        <v>0.7942869716065</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.660714285714286</v>
+        <v>0.25</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>53.5</v>
+        <v>0.006</v>
       </c>
       <c r="K5">
-        <v>-8.86051212938005</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>-13.7145073262018</v>
+        <v>-0.0005189226122951</v>
       </c>
       <c r="M5">
-        <v>-0.838981653601466</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>-16.5617049147291</v>
+        <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q5">
         <v>1789383.539</v>
@@ -903,19 +915,19 @@
         <v>5495386.718</v>
       </c>
       <c r="S5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="W5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -929,25 +941,43 @@
         <v>5</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
         <v>41</v>
       </c>
+      <c r="F6">
+        <v>0.43850343166746</v>
+      </c>
       <c r="G6">
-        <v>0.923076923076923</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0769230769230769</v>
+        <v>0.732142857142857</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>46</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>-7.21684333217692</v>
+      </c>
+      <c r="M6">
+        <v>5.01717032967033</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q6">
         <v>1789383.539</v>
@@ -956,19 +986,19 @@
         <v>5495386.718</v>
       </c>
       <c r="S6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="W6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -985,40 +1015,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7">
-        <v>0.991657020460483</v>
+        <v>42</v>
       </c>
       <c r="G7">
-        <v>0.714285714285714</v>
+        <v>0.925925925925926</v>
       </c>
       <c r="H7">
-        <v>0.125</v>
+        <v>0.0740740740740741</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
-      <c r="J7">
-        <v>0.001</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
       <c r="O7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q7">
         <v>1789383.539</v>
@@ -1027,19 +1039,19 @@
         <v>5495386.718</v>
       </c>
       <c r="S7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="W7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1053,43 +1065,43 @@
         <v>5</v>
       </c>
       <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8">
+        <v>0.998768110200826</v>
+      </c>
+      <c r="G8">
+        <v>0.803571428571429</v>
+      </c>
+      <c r="H8">
+        <v>0.107142857142857</v>
+      </c>
+      <c r="I8">
         <v>1</v>
       </c>
-      <c r="E8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8">
-        <v>0.350681023734419</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0.982142857142857</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
       <c r="J8">
-        <v>0.189</v>
+        <v>0.001</v>
       </c>
       <c r="K8">
-        <v>0.0072400888585099</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>-0.0138846484847568</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.0221344276700109</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>3.83073484577244</v>
+        <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P8" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="Q8">
         <v>1789383.539</v>
@@ -1098,19 +1110,19 @@
         <v>5495386.718</v>
       </c>
       <c r="S8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="W8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1124,43 +1136,43 @@
         <v>5</v>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F9">
-        <v>0.233831788510869</v>
+        <v>0.997728507983744</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.745454545454545</v>
+        <v>0.946428571428571</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.54</v>
+        <v>0.1795</v>
       </c>
       <c r="K9">
-        <v>-0.0208714285714285</v>
+        <v>-0.0195669642857143</v>
       </c>
       <c r="L9">
-        <v>-0.0664168974861666</v>
+        <v>-0.0420545309562505</v>
       </c>
       <c r="M9">
-        <v>0.0296597021670357</v>
+        <v>-0.0124309758357066</v>
       </c>
       <c r="N9">
-        <v>-0.276809397499052</v>
+        <v>-10.9008157580581</v>
       </c>
       <c r="O9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P9" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="Q9">
         <v>1789383.539</v>
@@ -1169,16 +1181,19 @@
         <v>5495386.718</v>
       </c>
       <c r="S9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V9" t="s">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="W9" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1195,40 +1210,40 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F10">
-        <v>0.295676810411018</v>
+        <v>0.754987320249101</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.928571428571429</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.19525</v>
+        <v>7.545</v>
       </c>
       <c r="K10">
-        <v>0.0074897470950102</v>
+        <v>0.0253294036061025</v>
       </c>
       <c r="L10">
-        <v>-0.0146072817879606</v>
+        <v>-0.0524107030660877</v>
       </c>
       <c r="M10">
-        <v>0.0209071243374856</v>
+        <v>0.0735942178761788</v>
       </c>
       <c r="N10">
-        <v>3.83597802561345</v>
+        <v>0.335711114726343</v>
       </c>
       <c r="O10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q10">
         <v>1789383.539</v>
@@ -1237,18 +1252,15 @@
         <v>5495386.718</v>
       </c>
       <c r="S10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V10" t="s">
-        <v>57</v>
-      </c>
-      <c r="W10" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1266,40 +1278,40 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F11">
-        <v>0.5</v>
+        <v>0.996366749228617</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.642857142857143</v>
+        <v>0.946428571428571</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.255</v>
+        <v>0.1825</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>-0.0238530612244898</v>
       </c>
       <c r="L11">
-        <v>-0.0135578353432446</v>
+        <v>-0.0441391810106593</v>
       </c>
       <c r="M11">
-        <v>0.0225701422743446</v>
+        <v>-0.0107986608226022</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>-13.070170533967</v>
       </c>
       <c r="O11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P11" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="Q11">
         <v>1789383.539</v>
@@ -1308,19 +1320,19 @@
         <v>5495386.718</v>
       </c>
       <c r="S11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="W11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1334,43 +1346,43 @@
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F12">
-        <v>0.265908035745463</v>
+        <v>0.977249868051821</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.339285714285714</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.0105</v>
+        <v>0.24</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>-0.0200686813186813</v>
       </c>
       <c r="L12">
-        <v>-0.0003618520901061</v>
+        <v>-0.0401373626373626</v>
       </c>
       <c r="M12">
-        <v>0.0010182682982659</v>
+        <v>-0.0033447802197802</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>-8.36195054945056</v>
       </c>
       <c r="O12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q12">
         <v>1789383.539</v>
@@ -1379,19 +1391,19 @@
         <v>5495386.718</v>
       </c>
       <c r="S12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="W12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1399,49 +1411,49 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F13">
-        <v>0.0505208312897955</v>
+        <v>0.584461725036494</v>
       </c>
       <c r="G13">
-        <v>0.0092592592592592</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>0.731481481481482</v>
+        <v>0.321428571428571</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>5.25</v>
+        <v>0.01</v>
       </c>
       <c r="K13">
-        <v>0.163569189431258</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>-0.0006679894053722</v>
       </c>
       <c r="M13">
-        <v>0.601873106292202</v>
+        <v>0.0005000944610585001</v>
       </c>
       <c r="N13">
-        <v>3.11560360821445</v>
+        <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Q13">
         <v>1789383.539</v>
@@ -1450,19 +1462,19 @@
         <v>5495386.718</v>
       </c>
       <c r="S13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="W13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1470,49 +1482,49 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14">
-        <v>0.684092697367081</v>
+        <v>0.789076012273318</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.839285714285714</v>
+        <v>0.851851851851852</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.725</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="K14">
-        <v>0.0114635172764673</v>
+        <v>-0.0376287774725275</v>
       </c>
       <c r="L14">
-        <v>-0.0213578637470712</v>
+        <v>-0.066144396123842</v>
       </c>
       <c r="M14">
-        <v>0.0445415434048717</v>
+        <v>0.0200188213975374</v>
       </c>
       <c r="N14">
-        <v>0.106885941971723</v>
+        <v>-5.45344601051123</v>
       </c>
       <c r="O14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q14">
         <v>1789383.539</v>
@@ -1521,19 +1533,19 @@
         <v>5495386.718</v>
       </c>
       <c r="S14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="W14" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1541,49 +1553,49 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15">
         <v>10</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15">
-        <v>0.997924245435666</v>
+        <v>0.191265482456498</v>
       </c>
       <c r="G15">
-        <v>0.120689655172414</v>
+        <v>0.009803921568627401</v>
       </c>
       <c r="H15">
-        <v>0.120689655172414</v>
+        <v>0.715686274509804</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.008999999999999999</v>
+        <v>5.5</v>
       </c>
       <c r="K15">
-        <v>-0.0003162337662337</v>
+        <v>0.0748974709501025</v>
       </c>
       <c r="L15">
-        <v>-0.0004993164730006</v>
+        <v>-0.07436113051576659</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.426727201222459</v>
       </c>
       <c r="N15">
-        <v>-3.51370851370851</v>
+        <v>1.36177219909277</v>
       </c>
       <c r="O15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q15">
         <v>1789383.539</v>
@@ -1592,16 +1604,16 @@
         <v>5495386.718</v>
       </c>
       <c r="S15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="W15" t="s">
         <v>60</v>
@@ -1612,49 +1624,49 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C16">
         <v>10</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F16">
-        <v>0.837190301088992</v>
+        <v>0.985999485991254</v>
       </c>
       <c r="G16">
-        <v>0.916666666666667</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>0.0925925925925926</v>
+        <v>0.831858407079646</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.005</v>
+        <v>10.76</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.0447244897959183</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.009883193360146</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.08400112485242241</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.415655109627494</v>
       </c>
       <c r="O16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q16">
         <v>1789383.539</v>
@@ -1663,19 +1675,19 @@
         <v>5495386.718</v>
       </c>
       <c r="S16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="W16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1683,7 +1695,7 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C17">
         <v>10</v>
@@ -1695,37 +1707,37 @@
         <v>40</v>
       </c>
       <c r="F17">
-        <v>0.999883356486876</v>
+        <v>0.999995155078902</v>
       </c>
       <c r="G17">
-        <v>0.568965517241379</v>
+        <v>0.155172413793103</v>
       </c>
       <c r="H17">
-        <v>0.09482758620689651</v>
+        <v>0.120689655172414</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.001</v>
+        <v>0.008</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>-0.0004654352769911</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>-0.0006462433665771</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>-0.0002765666403341</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>-5.81794096238909</v>
       </c>
       <c r="O17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q17">
         <v>1789383.539</v>
@@ -1734,19 +1746,19 @@
         <v>5495386.718</v>
       </c>
       <c r="S17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V17" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="W17" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1754,7 +1766,7 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C18">
         <v>10</v>
@@ -1763,40 +1775,40 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F18">
-        <v>0.78305319351</v>
+        <v>0.89672572037874</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="H18">
-        <v>0.9655172413793101</v>
+        <v>0.57843137254902</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>0.1914</v>
+        <v>58</v>
       </c>
       <c r="K18">
-        <v>-0.0023029774596405</v>
+        <v>-3.88837573385519</v>
       </c>
       <c r="L18">
-        <v>-0.008559967975134201</v>
+        <v>-7.90804149911678</v>
       </c>
       <c r="M18">
-        <v>0.0033229787887986</v>
+        <v>0.845712235283869</v>
       </c>
       <c r="N18">
-        <v>-1.20322751287386</v>
+        <v>-6.70409609285377</v>
       </c>
       <c r="O18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q18">
         <v>1789383.539</v>
@@ -1805,19 +1817,19 @@
         <v>5495386.718</v>
       </c>
       <c r="S18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="W18" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1825,7 +1837,7 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C19">
         <v>10</v>
@@ -1834,40 +1846,40 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F19">
-        <v>0.18063233558513</v>
+        <v>0.226681345736455</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.954128440366973</v>
       </c>
       <c r="H19">
-        <v>0.616071428571429</v>
+        <v>0.055045871559633</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19">
-        <v>7.545</v>
+        <v>0.005</v>
       </c>
       <c r="K19">
-        <v>-0.009204117541223</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>-0.0248469387755102</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0074814259700623</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>-0.121989629439669</v>
+        <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P19" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="Q19">
         <v>1789383.539</v>
@@ -1876,16 +1888,19 @@
         <v>5495386.718</v>
       </c>
       <c r="S19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V19" t="s">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="W19" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1893,49 +1908,49 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C20">
         <v>10</v>
       </c>
       <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20">
+        <v>0.999963741558778</v>
+      </c>
+      <c r="G20">
+        <v>0.672413793103448</v>
+      </c>
+      <c r="H20">
+        <v>0.0775862068965517</v>
+      </c>
+      <c r="I20">
         <v>1</v>
       </c>
-      <c r="E20" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20">
-        <v>0.758613259110031</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0.913793103448276</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
       <c r="J20">
-        <v>0.19565</v>
+        <v>0.001</v>
       </c>
       <c r="K20">
-        <v>-0.0023264331210191</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>-0.0091842480067456</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.003439901482267</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>-1.18907902939898</v>
+        <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q20">
         <v>1789383.539</v>
@@ -1944,19 +1959,19 @@
         <v>5495386.718</v>
       </c>
       <c r="S20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="W20" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1964,49 +1979,49 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C21">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F21">
-        <v>0.0013594556714927</v>
+        <v>0.997696905337621</v>
       </c>
       <c r="G21">
-        <v>0.0061349693251533</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>0.736196319018405</v>
+        <v>0.939655172413793</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>2.8</v>
+        <v>0.1795</v>
       </c>
       <c r="K21">
-        <v>0.115954437361478</v>
+        <v>-0.0085636586695747</v>
       </c>
       <c r="L21">
-        <v>0.0183066002978353</v>
+        <v>-0.0134169870928115</v>
       </c>
       <c r="M21">
-        <v>0.322192349437707</v>
+        <v>-0.0030069759561383</v>
       </c>
       <c r="N21">
-        <v>4.14122990576708</v>
+        <v>-4.77084048444273</v>
       </c>
       <c r="O21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q21">
         <v>1789383.539</v>
@@ -2015,19 +2030,19 @@
         <v>5495386.718</v>
       </c>
       <c r="S21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T21" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="W21" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2035,49 +2050,49 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F22">
-        <v>0.40324797025367</v>
+        <v>0.298532257952766</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0.646017699115044</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.363</v>
+        <v>7.56</v>
       </c>
       <c r="K22">
-        <v>-0.045292442104493</v>
+        <v>-0.0052355424199276</v>
       </c>
       <c r="L22">
-        <v>-0.176360912659384</v>
+        <v>-0.023416641163047</v>
       </c>
       <c r="M22">
-        <v>0.0637427676594442</v>
+        <v>0.0125341709745491</v>
       </c>
       <c r="N22">
-        <v>-12.4772567780972</v>
+        <v>-0.0692532066128001</v>
       </c>
       <c r="O22" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P22" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="Q22">
         <v>1789383.539</v>
@@ -2086,16 +2101,16 @@
         <v>5495386.718</v>
       </c>
       <c r="S22" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U22" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V22" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2103,49 +2118,49 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C23">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F23">
-        <v>0.231216363225238</v>
+        <v>0.993494441655091</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>110</v>
+        <v>0.1835</v>
       </c>
       <c r="K23">
-        <v>-4.8025053304904</v>
+        <v>-0.008835349155636701</v>
       </c>
       <c r="L23">
-        <v>-14.4005936765075</v>
+        <v>-0.0137937111164153</v>
       </c>
       <c r="M23">
-        <v>1.91611989466209</v>
+        <v>-0.0026152309758148</v>
       </c>
       <c r="N23">
-        <v>-4.36591393680946</v>
+        <v>-4.8149041720091</v>
       </c>
       <c r="O23" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P23" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q23">
         <v>1789383.539</v>
@@ -2154,16 +2169,19 @@
         <v>5495386.718</v>
       </c>
       <c r="S23" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T23" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U23" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V23" t="s">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="W23" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2171,67 +2189,620 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24">
+        <v>0.999893308033691</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0.446601941747573</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0.26</v>
+      </c>
+      <c r="K24">
+        <v>-0.0132939035486806</v>
+      </c>
+      <c r="L24">
+        <v>-0.020007373937334</v>
+      </c>
+      <c r="M24">
+        <v>-0.0071276702651702</v>
+      </c>
+      <c r="N24">
+        <v>-5.11303982641562</v>
+      </c>
+      <c r="O24" t="s">
+        <v>45</v>
+      </c>
+      <c r="P24" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q24">
+        <v>1789383.539</v>
+      </c>
+      <c r="R24">
+        <v>5495386.718</v>
+      </c>
+      <c r="S24" t="s">
+        <v>56</v>
+      </c>
+      <c r="T24" t="s">
+        <v>57</v>
+      </c>
+      <c r="U24" t="s">
+        <v>58</v>
+      </c>
+      <c r="V24" t="s">
+        <v>59</v>
+      </c>
+      <c r="W24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25">
+        <v>0.992671774287354</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0.262135922330097</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0.011</v>
+      </c>
+      <c r="K25">
+        <v>-0.0004141156462585</v>
+      </c>
+      <c r="L25">
+        <v>-0.0007496368587179</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>-3.76468769325913</v>
+      </c>
+      <c r="O25" t="s">
+        <v>45</v>
+      </c>
+      <c r="P25" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q25">
+        <v>1789383.539</v>
+      </c>
+      <c r="R25">
+        <v>5495386.718</v>
+      </c>
+      <c r="S25" t="s">
+        <v>56</v>
+      </c>
+      <c r="T25" t="s">
+        <v>57</v>
+      </c>
+      <c r="U25" t="s">
+        <v>58</v>
+      </c>
+      <c r="V25" t="s">
+        <v>59</v>
+      </c>
+      <c r="W25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>15</v>
+      </c>
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26">
+        <v>7.43709540910595E-06</v>
+      </c>
+      <c r="G26">
+        <v>0.00625</v>
+      </c>
+      <c r="H26">
+        <v>0.725</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>2.75</v>
+      </c>
+      <c r="K26">
+        <v>0.236622907949791</v>
+      </c>
+      <c r="L26">
+        <v>0.09412112926274629</v>
+      </c>
+      <c r="M26">
+        <v>0.451941116723181</v>
+      </c>
+      <c r="N26">
+        <v>8.604469379992389</v>
+      </c>
+      <c r="O26" t="s">
+        <v>45</v>
+      </c>
+      <c r="P26" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q26">
+        <v>1789383.539</v>
+      </c>
+      <c r="R26">
+        <v>5495386.718</v>
+      </c>
+      <c r="S26" t="s">
+        <v>56</v>
+      </c>
+      <c r="T26" t="s">
+        <v>57</v>
+      </c>
+      <c r="U26" t="s">
+        <v>58</v>
+      </c>
+      <c r="V26" t="s">
+        <v>59</v>
+      </c>
+      <c r="W26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
         <v>37</v>
       </c>
-      <c r="C24">
+      <c r="C27">
         <v>5</v>
       </c>
-      <c r="D24" t="b">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27">
+        <v>0.40324797025367</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0.49</v>
+      </c>
+      <c r="K27">
+        <v>-0.0392112935490284</v>
+      </c>
+      <c r="L27">
+        <v>-0.176360912659384</v>
+      </c>
+      <c r="M27">
+        <v>0.09029263146499319</v>
+      </c>
+      <c r="N27">
+        <v>-8.00230480592416</v>
+      </c>
+      <c r="O27" t="s">
+        <v>45</v>
+      </c>
+      <c r="P27" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q27">
+        <v>1789383.539</v>
+      </c>
+      <c r="R27">
+        <v>5495386.718</v>
+      </c>
+      <c r="S27" t="s">
+        <v>56</v>
+      </c>
+      <c r="T27" t="s">
+        <v>57</v>
+      </c>
+      <c r="U27" t="s">
+        <v>58</v>
+      </c>
+      <c r="V27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28">
+        <v>0.231216363225238</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>105</v>
+      </c>
+      <c r="K28">
+        <v>-4.23916475230319</v>
+      </c>
+      <c r="L28">
+        <v>-14.4005936765075</v>
+      </c>
+      <c r="M28">
+        <v>3.4990710581518</v>
+      </c>
+      <c r="N28">
+        <v>-4.03729976409827</v>
+      </c>
+      <c r="O28" t="s">
+        <v>45</v>
+      </c>
+      <c r="P28" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q28">
+        <v>1789383.539</v>
+      </c>
+      <c r="R28">
+        <v>5495386.718</v>
+      </c>
+      <c r="S28" t="s">
+        <v>56</v>
+      </c>
+      <c r="T28" t="s">
+        <v>57</v>
+      </c>
+      <c r="U28" t="s">
+        <v>58</v>
+      </c>
+      <c r="V28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
         <v>39</v>
       </c>
-      <c r="F24">
-        <v>0.231216363225238</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29">
+        <v>0.5</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
         <v>1</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>6.21</v>
+      </c>
+      <c r="K29">
+        <v>-0.07244294552098431</v>
+      </c>
+      <c r="L29">
+        <v>-2.42639903877314</v>
+      </c>
+      <c r="M29">
+        <v>1.55977881930593</v>
+      </c>
+      <c r="N29">
+        <v>-1.16655306797076</v>
+      </c>
+      <c r="O29" t="s">
+        <v>45</v>
+      </c>
+      <c r="P29" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q29">
+        <v>1789383.539</v>
+      </c>
+      <c r="R29">
+        <v>5495386.718</v>
+      </c>
+      <c r="S29" t="s">
+        <v>56</v>
+      </c>
+      <c r="T29" t="s">
+        <v>57</v>
+      </c>
+      <c r="U29" t="s">
+        <v>58</v>
+      </c>
+      <c r="V29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30">
+        <v>0.301083763874098</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0.489</v>
+      </c>
+      <c r="K30">
+        <v>-0.0124002856695716</v>
+      </c>
+      <c r="L30">
+        <v>-0.0478544103911749</v>
+      </c>
+      <c r="M30">
+        <v>0.0163628844209055</v>
+      </c>
+      <c r="N30">
+        <v>-2.53584574019868</v>
+      </c>
+      <c r="O30" t="s">
+        <v>45</v>
+      </c>
+      <c r="P30" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q30">
+        <v>1789383.539</v>
+      </c>
+      <c r="R30">
+        <v>5495386.718</v>
+      </c>
+      <c r="S30" t="s">
+        <v>56</v>
+      </c>
+      <c r="T30" t="s">
+        <v>57</v>
+      </c>
+      <c r="U30" t="s">
+        <v>58</v>
+      </c>
+      <c r="V30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31">
+        <v>0.104206401842074</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0.888888888888889</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>110</v>
+      </c>
+      <c r="K31">
+        <v>-2.67901778754265</v>
+      </c>
+      <c r="L31">
+        <v>-4.5620883736269</v>
+      </c>
+      <c r="M31">
+        <v>1.13808818713659</v>
+      </c>
+      <c r="N31">
+        <v>-2.43547071594787</v>
+      </c>
+      <c r="O31" t="s">
+        <v>45</v>
+      </c>
+      <c r="P31" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q31">
+        <v>1789383.539</v>
+      </c>
+      <c r="R31">
+        <v>5495386.718</v>
+      </c>
+      <c r="S31" t="s">
+        <v>56</v>
+      </c>
+      <c r="T31" t="s">
+        <v>57</v>
+      </c>
+      <c r="U31" t="s">
+        <v>58</v>
+      </c>
+      <c r="V31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32">
+        <v>0.5</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
         <v>5.5</v>
       </c>
-      <c r="K24">
-        <v>-0.536112192139103</v>
-      </c>
-      <c r="L24">
-        <v>-2.42639903877314</v>
-      </c>
-      <c r="M24">
-        <v>0.496152602534566</v>
-      </c>
-      <c r="N24">
-        <v>-9.747494402529149</v>
-      </c>
-      <c r="O24" t="s">
-        <v>43</v>
-      </c>
-      <c r="P24" t="s">
+      <c r="K32">
+        <v>0.0555156661288036</v>
+      </c>
+      <c r="L32">
+        <v>-0.525658466437238</v>
+      </c>
+      <c r="M32">
+        <v>0.336961049750148</v>
+      </c>
+      <c r="N32">
+        <v>1.00937574779643</v>
+      </c>
+      <c r="O32" t="s">
+        <v>45</v>
+      </c>
+      <c r="P32" t="s">
         <v>46</v>
       </c>
-      <c r="Q24">
-        <v>1789383.539</v>
-      </c>
-      <c r="R24">
-        <v>5495386.718</v>
-      </c>
-      <c r="S24" t="s">
-        <v>54</v>
-      </c>
-      <c r="T24" t="s">
-        <v>55</v>
-      </c>
-      <c r="U24" t="s">
-        <v>56</v>
-      </c>
-      <c r="V24" t="s">
-        <v>57</v>
+      <c r="Q32">
+        <v>1789383.539</v>
+      </c>
+      <c r="R32">
+        <v>5495386.718</v>
+      </c>
+      <c r="S32" t="s">
+        <v>56</v>
+      </c>
+      <c r="T32" t="s">
+        <v>57</v>
+      </c>
+      <c r="U32" t="s">
+        <v>58</v>
+      </c>
+      <c r="V32" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
